--- a/biology/Médecine/1155_en_santé_et_médecine/1155_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1155_en_santé_et_médecine/1155_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1155_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1155_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1155 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1155_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1155_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Première mention de la léproserie Saint-Gilles (leper hospital of St. Giles), à Shrewsbury dans le Shropshire en Angleterre, établissement probablement fondé vers 1136[1].
-Vers 1155 : à Montargis, en Gâtinais, à l’angle des rues actuelles de Châteaurenard et de Courtenay, construction de la maladrerie Saint-Lazare, où les récollets s'installeront en 1599[2].
-1135-1155 : outre, éventuellement, le leper hospital de Shrewsbury, des léproseries sont fondées en Angleterre à Canterbury (St. Lawrence), Buckland près de Douvres, Lynn, Burton Lazars (en), Aylesbury, York, Ripon et Northampton[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Première mention de la léproserie Saint-Gilles (leper hospital of St. Giles), à Shrewsbury dans le Shropshire en Angleterre, établissement probablement fondé vers 1136.
+Vers 1155 : à Montargis, en Gâtinais, à l’angle des rues actuelles de Châteaurenard et de Courtenay, construction de la maladrerie Saint-Lazare, où les récollets s'installeront en 1599.
+1135-1155 : outre, éventuellement, le leper hospital de Shrewsbury, des léproseries sont fondées en Angleterre à Canterbury (St. Lawrence), Buckland près de Douvres, Lynn, Burton Lazars (en), Aylesbury, York, Ripon et Northampton.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1155_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1155_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Première occurrence connue du mot français « malade » (« malabde » vers 980), du latin male habitus (« qui est en mauvais état[4] »).
-Frédéric Barberousse, empereur d'Allemagne et roi d'Italie, « ordonn[e] que nul chirurgien ne s[oit] admis à la maîtrise sans une attestation du professeur médecin de l'école de Salerne[5] ».
-Au siège de Tortone, « Barberousse empoisonne les puits avec des cadavres[6] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Première occurrence connue du mot français « malade » (« malabde » vers 980), du latin male habitus (« qui est en mauvais état »).
+Frédéric Barberousse, empereur d'Allemagne et roi d'Italie, « ordonn[e] que nul chirurgien ne s[oit] admis à la maîtrise sans une attestation du professeur médecin de l'école de Salerne ».
+Au siège de Tortone, « Barberousse empoisonne les puits avec des cadavres ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1155_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1155_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1150-1155 : naissance d'Alpais de Cudot (morte en 1211), mystique chrétienne, canonisée et considérée par l'Église catholique comme miraculeusement guérie de la lèpre[7],[8].
-1155-1159 : fl. Bremond, l'un des « deux premiers médecins narbonnais connus [avec Raoul (1171-1219)], l'un et l'autre parmi les proches de la  vicomtesse Ermengarde de Narbonne[9] ».
-1155-1180 : fl. Pierre, médecin « qu'on trouve cité dans des chartes tourangelles », chanoine de Tours et correspondant de Pierre de Blois selon Dubreuil-Chambardel[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1150-1155 : naissance d'Alpais de Cudot (morte en 1211), mystique chrétienne, canonisée et considérée par l'Église catholique comme miraculeusement guérie de la lèpre,.
+1155-1159 : fl. Bremond, l'un des « deux premiers médecins narbonnais connus [avec Raoul (1171-1219)], l'un et l'autre parmi les proches de la  vicomtesse Ermengarde de Narbonne ».
+1155-1180 : fl. Pierre, médecin « qu'on trouve cité dans des chartes tourangelles », chanoine de Tours et correspondant de Pierre de Blois selon Dubreuil-Chambardel.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1155_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1155_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 1155 : Ibn Saigh (né à une date inconnue), médecin à Alcanatif, devenu El Puerto de Santa María, en Andalousie[11]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1155 : Ibn Saigh (né à une date inconnue), médecin à Alcanatif, devenu El Puerto de Santa María, en Andalousie
 </t>
         </is>
       </c>
